--- a/artfynd/A 49000-2025 artfynd.xlsx
+++ b/artfynd/A 49000-2025 artfynd.xlsx
@@ -797,7 +797,7 @@
         <v>130134265</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -895,32 +895,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130134356</v>
+        <v>130134267</v>
       </c>
       <c r="B4" t="n">
-        <v>93091</v>
+        <v>99013</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>750732</v>
+        <v>750666</v>
       </c>
       <c r="R4" t="n">
-        <v>7111314</v>
+        <v>7111136</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -960,12 +960,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -985,7 +985,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Daniel Lussetti</t>
+          <t>Lisa Sandberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -996,32 +996,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130134267</v>
+        <v>130134356</v>
       </c>
       <c r="B5" t="n">
-        <v>99009</v>
+        <v>93095</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>750666</v>
+        <v>750732</v>
       </c>
       <c r="R5" t="n">
-        <v>7111136</v>
+        <v>7111314</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Lisa Sandberg</t>
+          <t>Daniel Lussetti</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1100,7 +1100,7 @@
         <v>130134262</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>130134353</v>
       </c>
       <c r="B7" t="n">
-        <v>93091</v>
+        <v>93095</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>130134261</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>130134269</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>130134260</v>
       </c>
       <c r="B10" t="n">
-        <v>78996</v>
+        <v>79000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>130134263</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         <v>130134351</v>
       </c>
       <c r="B12" t="n">
-        <v>93103</v>
+        <v>93107</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>130134271</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>130134238</v>
       </c>
       <c r="B14" t="n">
-        <v>99009</v>
+        <v>99013</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         <v>130134270</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>130134258</v>
       </c>
       <c r="B16" t="n">
-        <v>78642</v>
+        <v>78646</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>130134250</v>
       </c>
       <c r="B17" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>130134354</v>
       </c>
       <c r="B19" t="n">
-        <v>93129</v>
+        <v>93133</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>130134355</v>
       </c>
       <c r="B20" t="n">
-        <v>93129</v>
+        <v>93133</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/artfynd/A 49000-2025 artfynd.xlsx
+++ b/artfynd/A 49000-2025 artfynd.xlsx
@@ -895,32 +895,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130134267</v>
+        <v>130134356</v>
       </c>
       <c r="B4" t="n">
-        <v>99013</v>
+        <v>93095</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>750666</v>
+        <v>750732</v>
       </c>
       <c r="R4" t="n">
-        <v>7111136</v>
+        <v>7111314</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -960,12 +960,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -985,7 +985,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Lisa Sandberg</t>
+          <t>Daniel Lussetti</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -996,32 +996,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130134356</v>
+        <v>130134267</v>
       </c>
       <c r="B5" t="n">
-        <v>93095</v>
+        <v>99013</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>750732</v>
+        <v>750666</v>
       </c>
       <c r="R5" t="n">
-        <v>7111314</v>
+        <v>7111136</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Daniel Lussetti</t>
+          <t>Lisa Sandberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1804,32 +1804,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130134271</v>
+        <v>130134238</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>99013</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>750620</v>
+        <v>750467</v>
       </c>
       <c r="R13" t="n">
-        <v>7111033</v>
+        <v>7110939</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1905,32 +1905,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130134238</v>
+        <v>130134271</v>
       </c>
       <c r="B14" t="n">
-        <v>99013</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>750467</v>
+        <v>750620</v>
       </c>
       <c r="R14" t="n">
-        <v>7110939</v>
+        <v>7111033</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 49000-2025 artfynd.xlsx
+++ b/artfynd/A 49000-2025 artfynd.xlsx
@@ -1804,32 +1804,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130134238</v>
+        <v>130134271</v>
       </c>
       <c r="B13" t="n">
-        <v>99013</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>750467</v>
+        <v>750620</v>
       </c>
       <c r="R13" t="n">
-        <v>7110939</v>
+        <v>7111033</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1905,32 +1905,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130134271</v>
+        <v>130134238</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>99013</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>750620</v>
+        <v>750467</v>
       </c>
       <c r="R14" t="n">
-        <v>7111033</v>
+        <v>7110939</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 49000-2025 artfynd.xlsx
+++ b/artfynd/A 49000-2025 artfynd.xlsx
@@ -1804,32 +1804,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130134271</v>
+        <v>130134238</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>99013</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>750620</v>
+        <v>750467</v>
       </c>
       <c r="R13" t="n">
-        <v>7111033</v>
+        <v>7110939</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1905,32 +1905,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130134238</v>
+        <v>130134271</v>
       </c>
       <c r="B14" t="n">
-        <v>99013</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>750467</v>
+        <v>750620</v>
       </c>
       <c r="R14" t="n">
-        <v>7110939</v>
+        <v>7111033</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 49000-2025 artfynd.xlsx
+++ b/artfynd/A 49000-2025 artfynd.xlsx
@@ -1299,7 +1299,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130134261</v>
+        <v>130134269</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1334,10 +1334,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>750701</v>
+        <v>750667</v>
       </c>
       <c r="R8" t="n">
-        <v>7111370</v>
+        <v>7111133</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130134269</v>
+        <v>130134261</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1435,10 +1435,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>750667</v>
+        <v>750701</v>
       </c>
       <c r="R9" t="n">
-        <v>7111133</v>
+        <v>7111370</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130134260</v>
+        <v>130134263</v>
       </c>
       <c r="B10" t="n">
-        <v>79000</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1512,21 +1512,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>750719</v>
+        <v>750665</v>
       </c>
       <c r="R10" t="n">
-        <v>7111349</v>
+        <v>7111235</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130134263</v>
+        <v>130134260</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,21 +1613,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>750665</v>
+        <v>750719</v>
       </c>
       <c r="R11" t="n">
-        <v>7111235</v>
+        <v>7111349</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1804,32 +1804,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130134238</v>
+        <v>130134271</v>
       </c>
       <c r="B13" t="n">
-        <v>99013</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>750467</v>
+        <v>750620</v>
       </c>
       <c r="R13" t="n">
-        <v>7110939</v>
+        <v>7111033</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1905,32 +1905,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130134271</v>
+        <v>130134238</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>99013</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>750620</v>
+        <v>750467</v>
       </c>
       <c r="R14" t="n">
-        <v>7111033</v>
+        <v>7110939</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 49000-2025 artfynd.xlsx
+++ b/artfynd/A 49000-2025 artfynd.xlsx
@@ -1299,7 +1299,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130134269</v>
+        <v>130134261</v>
       </c>
       <c r="B8" t="n">
         <v>79243</v>
@@ -1334,10 +1334,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>750667</v>
+        <v>750701</v>
       </c>
       <c r="R8" t="n">
-        <v>7111133</v>
+        <v>7111370</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130134261</v>
+        <v>130134269</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1435,10 +1435,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>750701</v>
+        <v>750667</v>
       </c>
       <c r="R9" t="n">
-        <v>7111370</v>
+        <v>7111133</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1804,32 +1804,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130134271</v>
+        <v>130134238</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>99013</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>750620</v>
+        <v>750467</v>
       </c>
       <c r="R13" t="n">
-        <v>7111033</v>
+        <v>7110939</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1905,32 +1905,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130134238</v>
+        <v>130134271</v>
       </c>
       <c r="B14" t="n">
-        <v>99013</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>750467</v>
+        <v>750620</v>
       </c>
       <c r="R14" t="n">
-        <v>7110939</v>
+        <v>7111033</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 49000-2025 artfynd.xlsx
+++ b/artfynd/A 49000-2025 artfynd.xlsx
@@ -797,7 +797,7 @@
         <v>130134265</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -895,32 +895,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130134356</v>
+        <v>130134267</v>
       </c>
       <c r="B4" t="n">
-        <v>93095</v>
+        <v>99014</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>750732</v>
+        <v>750666</v>
       </c>
       <c r="R4" t="n">
-        <v>7111314</v>
+        <v>7111136</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -960,12 +960,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -985,7 +985,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Daniel Lussetti</t>
+          <t>Lisa Sandberg</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -996,32 +996,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130134267</v>
+        <v>130134356</v>
       </c>
       <c r="B5" t="n">
-        <v>99013</v>
+        <v>93096</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>750666</v>
+        <v>750732</v>
       </c>
       <c r="R5" t="n">
-        <v>7111136</v>
+        <v>7111314</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Lisa Sandberg</t>
+          <t>Daniel Lussetti</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1100,7 +1100,7 @@
         <v>130134262</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>130134353</v>
       </c>
       <c r="B7" t="n">
-        <v>93095</v>
+        <v>93096</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>130134261</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>130134269</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130134263</v>
+        <v>130134260</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79001</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1512,21 +1512,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>750665</v>
+        <v>750719</v>
       </c>
       <c r="R10" t="n">
-        <v>7111235</v>
+        <v>7111349</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130134260</v>
+        <v>130134263</v>
       </c>
       <c r="B11" t="n">
-        <v>79000</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,21 +1613,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>750719</v>
+        <v>750665</v>
       </c>
       <c r="R11" t="n">
-        <v>7111349</v>
+        <v>7111235</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1706,7 +1706,7 @@
         <v>130134351</v>
       </c>
       <c r="B12" t="n">
-        <v>93107</v>
+        <v>93108</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1804,32 +1804,32 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130134238</v>
+        <v>130134271</v>
       </c>
       <c r="B13" t="n">
-        <v>99013</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>750467</v>
+        <v>750620</v>
       </c>
       <c r="R13" t="n">
-        <v>7110939</v>
+        <v>7111033</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1905,32 +1905,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130134271</v>
+        <v>130134238</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>99014</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>750620</v>
+        <v>750467</v>
       </c>
       <c r="R14" t="n">
-        <v>7111033</v>
+        <v>7110939</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2009,7 +2009,7 @@
         <v>130134270</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>130134258</v>
       </c>
       <c r="B16" t="n">
-        <v>78646</v>
+        <v>78647</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>130134250</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>130134354</v>
       </c>
       <c r="B19" t="n">
-        <v>93133</v>
+        <v>93134</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>130134355</v>
       </c>
       <c r="B20" t="n">
-        <v>93133</v>
+        <v>93134</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>

--- a/artfynd/A 49000-2025 artfynd.xlsx
+++ b/artfynd/A 49000-2025 artfynd.xlsx
@@ -895,32 +895,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130134267</v>
+        <v>130134356</v>
       </c>
       <c r="B4" t="n">
-        <v>99014</v>
+        <v>93096</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>750666</v>
+        <v>750732</v>
       </c>
       <c r="R4" t="n">
-        <v>7111136</v>
+        <v>7111314</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -960,12 +960,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-10-07</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -985,7 +985,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Lisa Sandberg</t>
+          <t>Daniel Lussetti</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -996,32 +996,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130134356</v>
+        <v>130134267</v>
       </c>
       <c r="B5" t="n">
-        <v>93096</v>
+        <v>99014</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1031,10 +1031,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>750732</v>
+        <v>750666</v>
       </c>
       <c r="R5" t="n">
-        <v>7111314</v>
+        <v>7111136</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2025-10-07</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Daniel Lussetti</t>
+          <t>Lisa Sandberg</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1299,7 +1299,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130134261</v>
+        <v>130134269</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1334,10 +1334,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>750701</v>
+        <v>750667</v>
       </c>
       <c r="R8" t="n">
-        <v>7111370</v>
+        <v>7111133</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130134269</v>
+        <v>130134261</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1435,10 +1435,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>750667</v>
+        <v>750701</v>
       </c>
       <c r="R9" t="n">
-        <v>7111133</v>
+        <v>7111370</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130134260</v>
+        <v>130134263</v>
       </c>
       <c r="B10" t="n">
-        <v>79001</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1512,21 +1512,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1536,10 +1536,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>750719</v>
+        <v>750665</v>
       </c>
       <c r="R10" t="n">
-        <v>7111349</v>
+        <v>7111235</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130134263</v>
+        <v>130134260</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>79001</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1613,21 +1613,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>750665</v>
+        <v>750719</v>
       </c>
       <c r="R11" t="n">
-        <v>7111235</v>
+        <v>7111349</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
